--- a/data/input/Inventory_snapshot_audio_array.xlsx
+++ b/data/input/Inventory_snapshot_audio_array.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Other computers\My Laptop\D\Nitesh\Weekly Report - B2B + B2C\FastAPI\data\raw\inventory\Week 8\Audio_Array\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nitesh\AM - Inventory replenishment\AM_Replenishment\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C3273A-069A-4C9D-8A38-E814B8CF855C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBD5850-6432-4B5E-B708-5B75388EFFC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D49B0F4C-5F9E-467E-8AD9-9E638F42404F}"/>
   </bookViews>
